--- a/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-matrices.xlsx
+++ b/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-matrices.xlsx
@@ -305,16 +305,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -330,7 +322,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -338,30 +330,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,40 +640,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
